--- a/data/date.xlsx
+++ b/data/date.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB881114-9BF8-409C-BBFE-DF6614FBCA14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2199FB-C433-4B41-BBEB-DCFA29DB2155}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,13 +365,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C101" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1320,7 +1320,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:C3 C4:C29 B4:B118">
+  <conditionalFormatting sqref="B2:B118">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>59</formula>
     </cfRule>
